--- a/Mapping/unimelb_parkville_url.xlsx
+++ b/Mapping/unimelb_parkville_url.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/boat_amorntiyanggoon_unimelb_edu_au/Documents/Casual Tasks/URL_extraction/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_02E9C3FF73E30FACCDC2756905E82DF17979A684" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C51A576E-8884-4773-A638-5BA80558B9DC}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_530D03F05FA348AC551371AA2DED170B78790007" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03FAC901-F50C-4905-BC8A-8D78530E2D80}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,1047 +20,1020 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="347">
-  <si>
-    <t>Building name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="338">
+  <si>
+    <t>building_name</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEAUREPAIRE CENTRE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIDNEY MYER ASIA CENTRE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALAN GILBERT BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">757 SWANSTON ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">THE SPOT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FBE BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAW BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REDMOND BARRY BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLD PHYSICS BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIVERSITY HOUSE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 BARRY ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">207-221 BOUVERIE ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTS WEST - WEST WING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BABEL BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAVID CARO BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOUG McDONELL BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">INFRASTRUCTURE ENGINEERING - BLOCK B </t>
-  </si>
-  <si>
-    <t xml:space="preserve">INFRASTRUCTURE ENGINEERING - BLOCK D </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOHN MEDLEY BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KWONG LEE DOW BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MECHANICAL ENGINEERING BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLYN DAVIS BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLD QUADRANGLE BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLD ENGINEERING SCHOOL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCCOY BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALDWIN SPENCER BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 - 21 BEDFORD ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 LINCOLN SQUARE NORTH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">95-109 BARRY STREET </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIOSCIENCES 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 LEICESTER ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">131-137 BARRY ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">138-146 CARDIGAN ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">141 BARRY ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">147-151 BARRY ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">155 BARRY ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">153 BARRY ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">156-162 PELHAM ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">157 BARRY ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">158 BOUVERIE ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">159 BARRY ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">164-170 PELHAM ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">169 BERKELEY ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">183 BOUVERIE ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">205 GRATTAN ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202-206 BERKELEY ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">208-210 BERKELEY ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">214 BERKELEY ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">233 BOUVERIE ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">200 BERKELEY ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIOSCIENCES 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">550 SWANSTON ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">203 BOUVERIE ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIOSCIENCES 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIOSCIENCES 4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">715 SWANSTON ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">766 ELIZABETH ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">780 ELIZABETH ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1888 BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOOD AND NUTRITION BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUILDING 161 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUILDING 184 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEMICAL ENGINEERING 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEMICAL ENGINEERING 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEMISTRY BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEMISTRY BUILDING - EAST WING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSERVATORIUM OF MUSIC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EASTERN PRECINCT UNDERGROUND CARPARK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EASTERN RESOURCE CENTRE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELECTRICAL &amp; ELECTRONIC ENGINEERING BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELISABETH MURDOCH BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELIZABETH BLACKBURN SCHOOL OF SCIENCES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENGINEERING WORKSHOPS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERNIE CROPLEY SPORTS PAVILLION </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANK TATE BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FVAS BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRATTAN INSTITUTE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">INFRASTRUCTURE ENGINEERING - BLOCK C </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS RECYCLING CENTRE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS SECURITY OFFICE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDICAL BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MELBOURNE DENTAL CLINIC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLD ARTS BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLD GEOLOGY BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLD METALLURGY BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PETER HALL BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PETER MCPHEE CENTRE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOUTH LAWN UNDERGROUND CAR PARK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">THOMAS CHERRY BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIVERSITY SQUARE CARPARK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">139 BARRY ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WALTER BOAS BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WILSON HALL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTS WEST - NORTH WING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NONA LEE SPORTS CENTRE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BROWNLESS BIOMEDICAL LIBRARY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAILLIEU LIBRARY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IAN POTTER MUSEUM OF ART </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLD GEOLOGY BUILDING - SOUTH WING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WESTERN EDGE BIOSCIENCES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">204 Lygon Street </t>
-  </si>
-  <si>
-    <t xml:space="preserve">535 ELIZABETH ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KENNETH MYER BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PETER DOHERTY INSTITUTE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAVID PENINGTON BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">700 SWANSTON ST - MELBOURNE CONNECT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">THE LOFTS AT MELBOURNE CONNECT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">STUDENT PAVILION </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTS &amp; CULTURAL BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUTH BISHOP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grainger Museum </t>
-  </si>
-  <si>
-    <t xml:space="preserve">University Grandstand </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIO21 BUSINESS INCUBATOR BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NANCY MILLIS BUILDING </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 101 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 158 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 104 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 199 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 110 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 105 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 106 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 115 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 128 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 112 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 266 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 379 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 148B </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 139 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 192 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 168 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 175 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 176 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 191 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 263 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 170 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 133 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 150 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 173 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 200 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 113 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 387 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 245 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 326 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 122 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 278 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 337 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 385 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 390 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 388 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 251 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 363 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 252 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 352 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 384 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 353 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 253 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 224 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 249 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 368 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 207 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 204 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 206 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 250 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 260 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 143 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 246 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 261 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 123 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 147 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 243 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 222 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 220 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 198 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 194 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 161 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 184 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 165 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 167 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 153 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 154 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 141 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 333 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 171 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 193 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 134 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 405 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 169 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 498 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 189 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 142 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 242 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 174 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 225 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 203 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 181 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 348 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 149 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 155 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 166 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 160 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 344 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 195 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 201 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 107 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 394 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 163 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 151 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 148A </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 103 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 182 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 177 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 136 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 156 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 125 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 281 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 232 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 144 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 248 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 102 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 290 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 291 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 292 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 162 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">159 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 403 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 140 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 234 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 404 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 401 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 101 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 158 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 104 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 199 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 110 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 105 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 106 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 115 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 128 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 112 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 266 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 379 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 148B </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 139 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 192 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 168 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 175 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 176 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 191 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 263 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 170 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 133 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 150 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 173 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 200 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 113 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 387 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 245 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 326 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 122 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 278 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 337 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 385 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 390 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 388 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 251 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 363 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 252 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 352 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 384 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 353 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 253 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 224 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 249 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 368 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 207 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 204 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 206 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 250 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 260 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 143 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 246 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 261 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 123 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 147 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 243 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 222 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 220 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 198 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 194 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 161 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 184 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 165 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 167 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 153 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 154 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 141 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 333 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 171 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 193 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 134 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 405 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 169 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 498 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 189 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 142 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 242 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 174 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 225 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 203 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 181 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 348 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 149 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 155 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 166 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 160 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 344 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 195 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 201 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 107 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 394 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 163 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 151 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 148A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 103 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 182 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 177 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 136 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 156 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 125 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 281 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 232 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 144 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 248 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 102 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 290 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 291 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 292 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 162 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=159 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 403 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 140 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 234 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 404 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi= 401 </t>
+    <t>website:map</t>
+  </si>
+  <si>
+    <t>BEAUREPAIRE CENTRE</t>
+  </si>
+  <si>
+    <t>SIDNEY MYER ASIA CENTRE</t>
+  </si>
+  <si>
+    <t>ALAN GILBERT BUILDING</t>
+  </si>
+  <si>
+    <t>757 SWANSTON ST (STOP 1 &amp; STUDENT SERVICES)</t>
+  </si>
+  <si>
+    <t>THE SPOT</t>
+  </si>
+  <si>
+    <t>FBE BUILDING</t>
+  </si>
+  <si>
+    <t>LAW BUILDING</t>
+  </si>
+  <si>
+    <t>REDMOND BARRY BUILDING</t>
+  </si>
+  <si>
+    <t>OLD PHYSICS BUILDING</t>
+  </si>
+  <si>
+    <t>UNIVERSITY HOUSE</t>
+  </si>
+  <si>
+    <t>11 BARRY ST (BUSINESS SERVICES)</t>
+  </si>
+  <si>
+    <t>207-221 BOUVERIE ST</t>
+  </si>
+  <si>
+    <t>ARTS WEST BUILDING (WEST WING)</t>
+  </si>
+  <si>
+    <t>BABEL BUILDING</t>
+  </si>
+  <si>
+    <t>DAVID CARO BUILDING</t>
+  </si>
+  <si>
+    <t>BUILDING 168</t>
+  </si>
+  <si>
+    <t>INFRASTRUCTURE ENGINEERING (BLOCK B)</t>
+  </si>
+  <si>
+    <t>INFRASTRUCTURE ENGINEERING (BLOCK D)</t>
+  </si>
+  <si>
+    <t>JOHN MEDLEY BUILDING</t>
+  </si>
+  <si>
+    <t>KWONG LEE DOW BUILDING</t>
+  </si>
+  <si>
+    <t>MECHANICAL ENGINEERING BUILDING</t>
+  </si>
+  <si>
+    <t>GLYN DAVIS BUILDING</t>
+  </si>
+  <si>
+    <t>OLD QUADRANGLE BUILDING</t>
+  </si>
+  <si>
+    <t>OLD ENGINEERING SCHOOL</t>
+  </si>
+  <si>
+    <t>MCCOY BUILDING</t>
+  </si>
+  <si>
+    <t>BALDWIN SPENCER BUILDING</t>
+  </si>
+  <si>
+    <t>21 BEDFORD ST</t>
+  </si>
+  <si>
+    <t>32 LINCOLN SQUARE NORTH</t>
+  </si>
+  <si>
+    <t>95-109 BARRY ST</t>
+  </si>
+  <si>
+    <t>BIOSCIENCES 2</t>
+  </si>
+  <si>
+    <t>100 LEICESTER ST</t>
+  </si>
+  <si>
+    <t>131-137 BARRY ST</t>
+  </si>
+  <si>
+    <t>UNIVERSITY HEALTH SERVICES BUILDING</t>
+  </si>
+  <si>
+    <t>141 BARRY ST (POCHE CENTRE)</t>
+  </si>
+  <si>
+    <t>147-151 BARRY ST (AUSTRALIA-INDIA INSTITUTE)</t>
+  </si>
+  <si>
+    <t>BARRY ST TERRACES</t>
+  </si>
+  <si>
+    <t>156-162 PELHAM ST (STUDENT SERVICES)</t>
+  </si>
+  <si>
+    <t>158 BOUVERIE ST</t>
+  </si>
+  <si>
+    <t>164-170 PELHAM ST (STUDENT SERVICES)</t>
+  </si>
+  <si>
+    <t>169 BERKELEY ST</t>
+  </si>
+  <si>
+    <t>183 BOUVERIE ST (LINCOLN SQUARE GYM)</t>
+  </si>
+  <si>
+    <t>205 GRATTAN ST</t>
+  </si>
+  <si>
+    <t>202-206 BERKELEY ST</t>
+  </si>
+  <si>
+    <t>208-210 BERKELEY ST (MCM PRACTICE ROOMS)</t>
+  </si>
+  <si>
+    <t>214 BERKELEY ST (MCM PRACTICE ROOMS)</t>
+  </si>
+  <si>
+    <t>233 BOUVERIE ST</t>
+  </si>
+  <si>
+    <t>200 BERKELEY ST</t>
+  </si>
+  <si>
+    <t>BIOSCIENCES 3</t>
+  </si>
+  <si>
+    <t>550 SWANSTON ST (AUDIOLOGY CLINIC)</t>
+  </si>
+  <si>
+    <t>203 BOUVERIE ST</t>
+  </si>
+  <si>
+    <t>BIOSCIENCES 1</t>
+  </si>
+  <si>
+    <t>BIOSCIENCES 4</t>
+  </si>
+  <si>
+    <t>715 SWANSTON ST</t>
+  </si>
+  <si>
+    <t>766 ELIZABETH ST (LEVELS G, 3, 4)</t>
+  </si>
+  <si>
+    <t>780 ELIZABETH ST</t>
+  </si>
+  <si>
+    <t>1888 BUILDING</t>
+  </si>
+  <si>
+    <t>FOOD &amp; NUTRITION BUILDING</t>
+  </si>
+  <si>
+    <t>BUILDING 161</t>
+  </si>
+  <si>
+    <t>OLD MICROBIOLOGY BUILDING</t>
+  </si>
+  <si>
+    <t>CHEMICAL ENGINEERING 1</t>
+  </si>
+  <si>
+    <t>CHEMICAL ENGINEERING 2</t>
+  </si>
+  <si>
+    <t>CHEMISTRY BUILDING (WEST WING)</t>
+  </si>
+  <si>
+    <t>CHEMISTRY BUILDING (EAST WING)</t>
+  </si>
+  <si>
+    <t>CONSERVATORIUM OF MUSIC</t>
+  </si>
+  <si>
+    <t>EASTERN PRECINCT UNDERGROUND CARPARK</t>
+  </si>
+  <si>
+    <t>EASTERN RESOURCE CENTRE (ERC LIBRARY)</t>
+  </si>
+  <si>
+    <t>ELECTRICAL &amp; ELECTRONIC ENGINEERING BUILDING</t>
+  </si>
+  <si>
+    <t>ELISABETH MURDOCH BUILDING</t>
+  </si>
+  <si>
+    <t>ELIZABETH BLACKBURN SCHOOL OF SCIENCES</t>
+  </si>
+  <si>
+    <t>ENGINEERING WORKSHOPS</t>
+  </si>
+  <si>
+    <t>ERNIE CROPLEY SPORTS PAVILION</t>
+  </si>
+  <si>
+    <t>BUILDING 189</t>
+  </si>
+  <si>
+    <t>FVAS BUILDING</t>
+  </si>
+  <si>
+    <t>8-14 MALVINA PLACE (GRATTAN INSTITUTE)</t>
+  </si>
+  <si>
+    <t>INFRASTRUCTURE ENGINEERING (BLOCK C)</t>
+  </si>
+  <si>
+    <t>221 BERKELEY ST (CYP)</t>
+  </si>
+  <si>
+    <t>SECURITY OFFICE</t>
+  </si>
+  <si>
+    <t>MEDICAL BUILDING</t>
+  </si>
+  <si>
+    <t>723 SWANSTON ST (MELBOURNE DENTAL CLINIC)</t>
+  </si>
+  <si>
+    <t>OLD ARTS BUILDING</t>
+  </si>
+  <si>
+    <t>OLD GEOLOGY BUILDING (NORTH WING)</t>
+  </si>
+  <si>
+    <t>OLD METALLURGY BUILDING</t>
+  </si>
+  <si>
+    <t>PETER HALL BUILDING</t>
+  </si>
+  <si>
+    <t>PETER MCPHEE CENTRE</t>
+  </si>
+  <si>
+    <t>BUILDING 195</t>
+  </si>
+  <si>
+    <t>THOMAS CHERRY BUILDING</t>
+  </si>
+  <si>
+    <t>UNIVERSITY SQUARE CARPARK</t>
+  </si>
+  <si>
+    <t>139 BARRY ST (STATISTICAL CONSULTING CENTRE)</t>
+  </si>
+  <si>
+    <t>WALTER BOAS BUILDING</t>
+  </si>
+  <si>
+    <t>WILSON HALL</t>
+  </si>
+  <si>
+    <t>ARTS WEST BUILDING (NORTH WING)</t>
+  </si>
+  <si>
+    <t>NONA LEE SPORTS CENTRE</t>
+  </si>
+  <si>
+    <t>BROWNLESS BIOMEDICAL LIBRARY</t>
+  </si>
+  <si>
+    <t>BAILLIEU LIBRARY</t>
+  </si>
+  <si>
+    <t>IAN POTTER MUSEUM OF ART</t>
+  </si>
+  <si>
+    <t>OLD GEOLOGY BUILDING (SOUTH WING)</t>
+  </si>
+  <si>
+    <t>BUILDING 125</t>
+  </si>
+  <si>
+    <t>204 LYGON ST (LEVELS 4 &amp; 5)</t>
+  </si>
+  <si>
+    <t>535 ELIZABETH ST (LEVELS 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>KENNETH MYER BUILDING</t>
+  </si>
+  <si>
+    <t>PETER DOHERTY INSTITUTE</t>
+  </si>
+  <si>
+    <t>DAVID PENINGTON BUILDING</t>
+  </si>
+  <si>
+    <t>700 SWANSTON ST (MELBOURNE CONNECT)</t>
+  </si>
+  <si>
+    <t>THE LOFTS AT MELBOURNE CONNECT</t>
+  </si>
+  <si>
+    <t>STUDENT PAVILION</t>
+  </si>
+  <si>
+    <t>ARTS &amp; CULTURAL BUILDING</t>
+  </si>
+  <si>
+    <t>RUTH BISHOP BUILDING</t>
+  </si>
+  <si>
+    <t>GRAINGER MUSEUM</t>
+  </si>
+  <si>
+    <t>GRAND STAND</t>
+  </si>
+  <si>
+    <t>BIO21 BUSINESS INCUBATOR BUILDING</t>
+  </si>
+  <si>
+    <t>NANCY MILLIS BUILDING</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>148B</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>148A</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=101</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=158</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=104</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=199</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=110</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=105</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=106</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=115</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=128</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=112</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=266</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=379</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=148B</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=139</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=192</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=168</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=175</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=176</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=191</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=263</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=170</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=133</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=150</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=173</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=200</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=113</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=387</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=245</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=326</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=122</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=278</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=337</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=385</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=390</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=388</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=251</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=252</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=384</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=253</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=224</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=249</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=368</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=207</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=204</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=206</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=250</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=260</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=143</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=246</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=261</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=123</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=147</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=243</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=222</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=220</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=198</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=194</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=161</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=184</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=165</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=167</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=153</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=154</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=141</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=333</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=171</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=193</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=134</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=405</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=169</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=498</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=189</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=142</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=242</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=174</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=225</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=203</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=181</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=348</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=149</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=155</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=166</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=160</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=344</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=195</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=201</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=107</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=394</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=163</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=151</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=148A</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=103</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=182</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=177</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=136</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=156</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=125</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=281</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=232</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=144</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=248</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=102</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=290</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=291</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=292</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=162</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=159</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=403</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=140</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=234</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=404</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=401</t>
   </si>
 </sst>
 </file>
@@ -1152,10 +1125,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1479,16 +1448,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1507,10 +1475,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1518,10 +1486,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1529,10 +1497,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1540,10 +1508,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1551,10 +1519,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1562,10 +1530,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1573,10 +1541,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1584,10 +1552,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1595,10 +1563,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1606,10 +1574,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1617,10 +1585,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1628,10 +1596,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1639,10 +1607,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1650,10 +1618,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1661,10 +1629,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1672,10 +1640,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1683,10 +1651,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1694,10 +1662,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1705,10 +1673,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1716,10 +1684,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1727,10 +1695,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1738,10 +1706,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1749,10 +1717,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1760,10 +1728,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1771,10 +1739,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1782,10 +1750,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1793,10 +1761,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1804,10 +1772,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1815,10 +1783,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1826,10 +1794,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1837,10 +1805,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1848,10 +1816,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1859,10 +1827,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1870,10 +1838,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1881,10 +1849,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1892,10 +1860,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1903,10 +1871,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1914,10 +1882,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1925,10 +1893,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1936,10 +1904,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1947,10 +1915,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1958,10 +1926,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1969,10 +1937,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1980,10 +1948,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1991,10 +1959,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -2002,10 +1970,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -2013,10 +1981,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -2024,10 +1992,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -2035,10 +2003,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -2046,10 +2014,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -2057,10 +2025,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -2068,10 +2036,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -2079,10 +2047,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -2090,10 +2058,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -2101,10 +2069,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -2112,10 +2080,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -2123,10 +2091,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -2134,10 +2102,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -2145,10 +2113,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -2156,10 +2124,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -2167,10 +2135,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -2178,10 +2146,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -2189,10 +2157,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -2200,10 +2168,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -2211,10 +2179,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -2222,10 +2190,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -2233,10 +2201,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -2244,10 +2212,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -2255,10 +2223,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -2266,10 +2234,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -2277,10 +2245,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -2288,10 +2256,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -2299,10 +2267,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -2310,10 +2278,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -2321,10 +2289,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -2332,10 +2300,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -2343,10 +2311,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -2354,10 +2322,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -2365,10 +2333,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -2376,10 +2344,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -2387,10 +2355,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -2398,10 +2366,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -2409,10 +2377,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -2420,10 +2388,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -2431,10 +2399,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -2442,10 +2410,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -2453,10 +2421,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -2464,10 +2432,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -2475,10 +2443,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -2486,10 +2454,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -2497,10 +2465,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -2508,10 +2476,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -2519,10 +2487,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -2530,10 +2498,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -2541,10 +2509,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -2552,10 +2520,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -2563,10 +2531,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -2574,10 +2542,10 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -2585,10 +2553,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -2596,10 +2564,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -2607,10 +2575,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -2618,10 +2586,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -2629,43 +2597,43 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -2673,10 +2641,10 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -2684,10 +2652,10 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -2695,10 +2663,10 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -2706,10 +2674,10 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -2717,10 +2685,10 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -2728,43 +2696,10 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" t="s">
-        <v>229</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" t="s">
-        <v>230</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116" t="s">
-        <v>231</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -2881,9 +2816,6 @@
     <hyperlink ref="C111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
     <hyperlink ref="C112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="C113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="C114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="C115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="C116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mapping/unimelb_parkville_url.xlsx
+++ b/Mapping/unimelb_parkville_url.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/boat_amorntiyanggoon_unimelb_edu_au/Documents/Casual Tasks/URL_extraction/mapping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HYC-MacBookPro/Documents/Digital Estate/hyperlink-pasting/Mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_530D03F05FA348AC551371AA2DED170B78790007" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03FAC901-F50C-4905-BC8A-8D78530E2D80}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B893740D-0148-CF4D-B6F7-7BAA4BBB50CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1450,16 +1450,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>113</v>
       </c>

--- a/Mapping/unimelb_parkville_url.xlsx
+++ b/Mapping/unimelb_parkville_url.xlsx
@@ -1,31 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HYC-MacBookPro/Documents/Digital Estate/hyperlink-pasting/Mapping/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B893740D-0148-CF4D-B6F7-7BAA4BBB50CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="326">
   <si>
     <t>building_name</t>
   </si>
   <si>
-    <t>No</t>
+    <t>building_no</t>
   </si>
   <si>
     <t>website:map</t>
@@ -352,18 +346,6 @@
     <t>RUTH BISHOP BUILDING</t>
   </si>
   <si>
-    <t>GRAINGER MUSEUM</t>
-  </si>
-  <si>
-    <t>GRAND STAND</t>
-  </si>
-  <si>
-    <t>BIO21 BUSINESS INCUBATOR BUILDING</t>
-  </si>
-  <si>
-    <t>NANCY MILLIS BUILDING</t>
-  </si>
-  <si>
     <t>101</t>
   </si>
   <si>
@@ -688,18 +670,6 @@
     <t>403</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
     <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=101</t>
   </si>
   <si>
@@ -1022,25 +992,13 @@
   </si>
   <si>
     <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=403</t>
-  </si>
-  <si>
-    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=140</t>
-  </si>
-  <si>
-    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=234</t>
-  </si>
-  <si>
-    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=404</t>
-  </si>
-  <si>
-    <t>https://use.mazemap.com/?campusid=200&amp;sharepoitype=identifier&amp;sharepoi=401</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1116,14 +1074,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1170,7 +1120,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1202,27 +1152,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1254,24 +1186,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1447,19 +1361,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="45.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1470,1352 +1379,1304 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110" t="s">
-        <v>222</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111" t="s">
-        <v>223</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112" t="s">
-        <v>224</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113" t="s">
-        <v>225</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="C63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="C65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="C69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="C70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="C71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="C73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="C75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="C77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="C78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="C79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="C80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="C81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="C82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="C84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="C85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="C86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="C87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="C88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="C89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="C91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="C92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="C93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="C95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="C96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="C97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="C100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="C101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="C102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="C104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="C106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="C107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="C110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="C111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="C112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="C21" r:id="rId20"/>
+    <hyperlink ref="C22" r:id="rId21"/>
+    <hyperlink ref="C23" r:id="rId22"/>
+    <hyperlink ref="C24" r:id="rId23"/>
+    <hyperlink ref="C25" r:id="rId24"/>
+    <hyperlink ref="C26" r:id="rId25"/>
+    <hyperlink ref="C27" r:id="rId26"/>
+    <hyperlink ref="C28" r:id="rId27"/>
+    <hyperlink ref="C29" r:id="rId28"/>
+    <hyperlink ref="C30" r:id="rId29"/>
+    <hyperlink ref="C31" r:id="rId30"/>
+    <hyperlink ref="C32" r:id="rId31"/>
+    <hyperlink ref="C33" r:id="rId32"/>
+    <hyperlink ref="C34" r:id="rId33"/>
+    <hyperlink ref="C35" r:id="rId34"/>
+    <hyperlink ref="C36" r:id="rId35"/>
+    <hyperlink ref="C37" r:id="rId36"/>
+    <hyperlink ref="C38" r:id="rId37"/>
+    <hyperlink ref="C39" r:id="rId38"/>
+    <hyperlink ref="C40" r:id="rId39"/>
+    <hyperlink ref="C41" r:id="rId40"/>
+    <hyperlink ref="C42" r:id="rId41"/>
+    <hyperlink ref="C43" r:id="rId42"/>
+    <hyperlink ref="C44" r:id="rId43"/>
+    <hyperlink ref="C45" r:id="rId44"/>
+    <hyperlink ref="C46" r:id="rId45"/>
+    <hyperlink ref="C47" r:id="rId46"/>
+    <hyperlink ref="C48" r:id="rId47"/>
+    <hyperlink ref="C49" r:id="rId48"/>
+    <hyperlink ref="C50" r:id="rId49"/>
+    <hyperlink ref="C51" r:id="rId50"/>
+    <hyperlink ref="C52" r:id="rId51"/>
+    <hyperlink ref="C53" r:id="rId52"/>
+    <hyperlink ref="C54" r:id="rId53"/>
+    <hyperlink ref="C55" r:id="rId54"/>
+    <hyperlink ref="C56" r:id="rId55"/>
+    <hyperlink ref="C57" r:id="rId56"/>
+    <hyperlink ref="C58" r:id="rId57"/>
+    <hyperlink ref="C59" r:id="rId58"/>
+    <hyperlink ref="C60" r:id="rId59"/>
+    <hyperlink ref="C61" r:id="rId60"/>
+    <hyperlink ref="C62" r:id="rId61"/>
+    <hyperlink ref="C63" r:id="rId62"/>
+    <hyperlink ref="C64" r:id="rId63"/>
+    <hyperlink ref="C65" r:id="rId64"/>
+    <hyperlink ref="C66" r:id="rId65"/>
+    <hyperlink ref="C67" r:id="rId66"/>
+    <hyperlink ref="C68" r:id="rId67"/>
+    <hyperlink ref="C69" r:id="rId68"/>
+    <hyperlink ref="C70" r:id="rId69"/>
+    <hyperlink ref="C71" r:id="rId70"/>
+    <hyperlink ref="C72" r:id="rId71"/>
+    <hyperlink ref="C73" r:id="rId72"/>
+    <hyperlink ref="C74" r:id="rId73"/>
+    <hyperlink ref="C75" r:id="rId74"/>
+    <hyperlink ref="C76" r:id="rId75"/>
+    <hyperlink ref="C77" r:id="rId76"/>
+    <hyperlink ref="C78" r:id="rId77"/>
+    <hyperlink ref="C79" r:id="rId78"/>
+    <hyperlink ref="C80" r:id="rId79"/>
+    <hyperlink ref="C81" r:id="rId80"/>
+    <hyperlink ref="C82" r:id="rId81"/>
+    <hyperlink ref="C83" r:id="rId82"/>
+    <hyperlink ref="C84" r:id="rId83"/>
+    <hyperlink ref="C85" r:id="rId84"/>
+    <hyperlink ref="C86" r:id="rId85"/>
+    <hyperlink ref="C87" r:id="rId86"/>
+    <hyperlink ref="C88" r:id="rId87"/>
+    <hyperlink ref="C89" r:id="rId88"/>
+    <hyperlink ref="C90" r:id="rId89"/>
+    <hyperlink ref="C91" r:id="rId90"/>
+    <hyperlink ref="C92" r:id="rId91"/>
+    <hyperlink ref="C93" r:id="rId92"/>
+    <hyperlink ref="C94" r:id="rId93"/>
+    <hyperlink ref="C95" r:id="rId94"/>
+    <hyperlink ref="C96" r:id="rId95"/>
+    <hyperlink ref="C97" r:id="rId96"/>
+    <hyperlink ref="C98" r:id="rId97"/>
+    <hyperlink ref="C99" r:id="rId98"/>
+    <hyperlink ref="C100" r:id="rId99"/>
+    <hyperlink ref="C101" r:id="rId100"/>
+    <hyperlink ref="C102" r:id="rId101"/>
+    <hyperlink ref="C103" r:id="rId102"/>
+    <hyperlink ref="C104" r:id="rId103"/>
+    <hyperlink ref="C105" r:id="rId104"/>
+    <hyperlink ref="C106" r:id="rId105"/>
+    <hyperlink ref="C107" r:id="rId106"/>
+    <hyperlink ref="C108" r:id="rId107"/>
+    <hyperlink ref="C109" r:id="rId108"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
